--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_25_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_25_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2580523.177788603</v>
+        <v>-2583121.972759264</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673423</v>
       </c>
     </row>
     <row r="9">
@@ -659,19 +659,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>54.83363780408481</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9811492522526</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>110.5418770458107</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>204.1780969433633</v>
       </c>
       <c r="U2" t="n">
-        <v>250.9999258468059</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>264.2960674923041</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -747,16 +747,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>92.85596119227912</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>135.0312635940655</v>
       </c>
       <c r="H3" t="n">
-        <v>89.90394266080568</v>
+        <v>89.90394266080567</v>
       </c>
       <c r="I3" t="n">
-        <v>19.91189527285529</v>
+        <v>19.91189527285523</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>2.116953416516708</v>
+        <v>2.116953416516623</v>
       </c>
       <c r="S3" t="n">
         <v>128.73407520327</v>
@@ -798,7 +798,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>199.4817319598178</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>72.12187193754704</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>90.13067551456423</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.6628404482119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2132921354687</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>61.91805043940415</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>228.5394683647124</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>300.6975571092298</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -987,7 +987,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657079</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
         <v>89.59687541851115</v>
@@ -1063,7 +1063,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1105,22 +1105,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>227.710585245575</v>
       </c>
       <c r="V7" t="n">
-        <v>48.86847813395527</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,13 +1133,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>73.51915625034124</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1148,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>126.5388824951695</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1300,10 +1300,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>62.64907291062093</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>41.74347609701294</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1528,10 +1528,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1543,7 +1543,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1576,25 +1576,25 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016452</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>107.9721668030632</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>172.8704187577631</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1774,7 +1774,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>104.7777418077826</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1813,25 +1813,25 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016447</v>
+        <v>46.3551708145556</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -2005,13 +2005,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>179.8780801519775</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>192.7891334611263</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>45.66054613217645</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856548</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012162</v>
+        <v>66.37524671012207</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>228.9553704673021</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2384,7 +2384,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560529</v>
       </c>
     </row>
     <row r="24">
@@ -2482,19 +2482,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>41.55695577161238</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>211.8793091068247</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,13 +2713,13 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C28" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D28" t="n">
         <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F28" t="n">
         <v>121.1364005308915</v>
@@ -2728,10 +2728,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541846</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808158</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2849,7 +2849,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2956,7 +2956,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541839</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652545</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808293</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3004,7 +3004,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972042</v>
       </c>
       <c r="V31" t="n">
         <v>227.8529958317883</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,7 +3202,7 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541847</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
         <v>56.98118882652579</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096047</v>
       </c>
       <c r="T34" t="n">
         <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972051</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541832</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652568</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808203</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972046</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808158</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972048</v>
@@ -3901,7 +3901,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652574</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808203</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3952,7 +3952,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972039</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972039</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>847.6787171265782</v>
+        <v>1276.969620026023</v>
       </c>
       <c r="C2" t="n">
-        <v>478.7162001861666</v>
+        <v>1276.969620026023</v>
       </c>
       <c r="D2" t="n">
-        <v>120.4505015794161</v>
+        <v>1276.969620026023</v>
       </c>
       <c r="E2" t="n">
-        <v>65.06298864599684</v>
+        <v>891.1813674277787</v>
       </c>
       <c r="F2" t="n">
-        <v>65.06298864599684</v>
+        <v>480.1954626381712</v>
       </c>
       <c r="G2" t="n">
-        <v>65.06298864599684</v>
+        <v>65.06298864599691</v>
       </c>
       <c r="H2" t="n">
-        <v>65.06298864599684</v>
+        <v>65.06298864599691</v>
       </c>
       <c r="I2" t="n">
-        <v>65.06298864599684</v>
+        <v>65.06298864599691</v>
       </c>
       <c r="J2" t="n">
-        <v>248.9490509731309</v>
+        <v>248.9490509731318</v>
       </c>
       <c r="K2" t="n">
-        <v>575.2851091032915</v>
+        <v>575.2851091032926</v>
       </c>
       <c r="L2" t="n">
-        <v>1017.035607679883</v>
+        <v>1017.035607679885</v>
       </c>
       <c r="M2" t="n">
-        <v>1540.237590999098</v>
+        <v>1540.2375909991</v>
       </c>
       <c r="N2" t="n">
-        <v>2076.519337778084</v>
+        <v>2076.519337778087</v>
       </c>
       <c r="O2" t="n">
-        <v>2569.579722854078</v>
+        <v>2569.579722854081</v>
       </c>
       <c r="P2" t="n">
-        <v>2955.894353302312</v>
+        <v>2955.894353302314</v>
       </c>
       <c r="Q2" t="n">
-        <v>3197.827805704724</v>
+        <v>3197.827805704727</v>
       </c>
       <c r="R2" t="n">
-        <v>3253.149432299842</v>
+        <v>3253.149432299845</v>
       </c>
       <c r="S2" t="n">
-        <v>3141.490970637407</v>
+        <v>3253.149432299845</v>
       </c>
       <c r="T2" t="n">
-        <v>2935.250468674414</v>
+        <v>3046.908930336852</v>
       </c>
       <c r="U2" t="n">
-        <v>2681.715190041276</v>
+        <v>3046.908930336852</v>
       </c>
       <c r="V2" t="n">
-        <v>2350.652302697706</v>
+        <v>2779.94320559715</v>
       </c>
       <c r="W2" t="n">
-        <v>1997.883647427592</v>
+        <v>2427.174550327036</v>
       </c>
       <c r="X2" t="n">
-        <v>1624.417889166512</v>
+        <v>2053.708792065956</v>
       </c>
       <c r="Y2" t="n">
-        <v>1234.2785571907</v>
+        <v>1663.569460090144</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1626.917666771054</v>
+        <v>941.5427451404066</v>
       </c>
       <c r="C3" t="n">
-        <v>1452.464637489927</v>
+        <v>767.0897158592796</v>
       </c>
       <c r="D3" t="n">
-        <v>1303.530227828675</v>
+        <v>618.1553061980285</v>
       </c>
       <c r="E3" t="n">
-        <v>1144.29277282322</v>
+        <v>458.917851192573</v>
       </c>
       <c r="F3" t="n">
-        <v>1050.498872628998</v>
+        <v>312.383293219458</v>
       </c>
       <c r="G3" t="n">
-        <v>914.1036568774169</v>
+        <v>175.9880774678766</v>
       </c>
       <c r="H3" t="n">
-        <v>823.2915935836738</v>
+        <v>85.17601417413351</v>
       </c>
       <c r="I3" t="n">
-        <v>803.1785680555372</v>
+        <v>65.06298864599691</v>
       </c>
       <c r="J3" t="n">
-        <v>893.8820000749448</v>
+        <v>155.7664206654047</v>
       </c>
       <c r="K3" t="n">
-        <v>1127.063437151131</v>
+        <v>388.947857741591</v>
       </c>
       <c r="L3" t="n">
-        <v>1486.927196831874</v>
+        <v>748.8116174223344</v>
       </c>
       <c r="M3" t="n">
-        <v>1926.228098874589</v>
+        <v>1188.11251946505</v>
       </c>
       <c r="N3" t="n">
-        <v>2391.564633529491</v>
+        <v>1653.449054119952</v>
       </c>
       <c r="O3" t="n">
-        <v>2795.036856668788</v>
+        <v>2056.92127725925</v>
       </c>
       <c r="P3" t="n">
-        <v>3099.525820234324</v>
+        <v>2361.410240824786</v>
       </c>
       <c r="Q3" t="n">
-        <v>3253.149432299842</v>
+        <v>2515.033852890304</v>
       </c>
       <c r="R3" t="n">
-        <v>3251.011095515481</v>
+        <v>2512.895516105944</v>
       </c>
       <c r="S3" t="n">
-        <v>3120.976676118239</v>
+        <v>2382.861096708702</v>
       </c>
       <c r="T3" t="n">
-        <v>2928.204227454518</v>
+        <v>2190.088648044981</v>
       </c>
       <c r="U3" t="n">
-        <v>2700.134267721553</v>
+        <v>1962.018688312015</v>
       </c>
       <c r="V3" t="n">
-        <v>2464.98215948981</v>
+        <v>1726.866580080272</v>
       </c>
       <c r="W3" t="n">
-        <v>2210.744802761608</v>
+        <v>1525.369881130961</v>
       </c>
       <c r="X3" t="n">
-        <v>2002.893302556075</v>
+        <v>1317.518380925429</v>
       </c>
       <c r="Y3" t="n">
-        <v>1795.133003791122</v>
+        <v>1109.758082160475</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>65.06298864599684</v>
+        <v>137.9133643404889</v>
       </c>
       <c r="C4" t="n">
-        <v>65.06298864599684</v>
+        <v>65.06298864599691</v>
       </c>
       <c r="D4" t="n">
-        <v>65.06298864599684</v>
+        <v>65.06298864599691</v>
       </c>
       <c r="E4" t="n">
-        <v>65.06298864599684</v>
+        <v>65.06298864599691</v>
       </c>
       <c r="F4" t="n">
-        <v>65.06298864599684</v>
+        <v>65.06298864599691</v>
       </c>
       <c r="G4" t="n">
-        <v>65.06298864599684</v>
+        <v>65.06298864599691</v>
       </c>
       <c r="H4" t="n">
-        <v>65.06298864599684</v>
+        <v>65.06298864599691</v>
       </c>
       <c r="I4" t="n">
-        <v>65.06298864599684</v>
+        <v>65.06298864599691</v>
       </c>
       <c r="J4" t="n">
-        <v>75.02005212274287</v>
+        <v>75.0200521227429</v>
       </c>
       <c r="K4" t="n">
-        <v>170.2650045033535</v>
+        <v>170.2650045033537</v>
       </c>
       <c r="L4" t="n">
-        <v>322.0515495633495</v>
+        <v>322.0515495633499</v>
       </c>
       <c r="M4" t="n">
-        <v>485.347462299279</v>
+        <v>485.3474622992794</v>
       </c>
       <c r="N4" t="n">
-        <v>652.6180891206071</v>
+        <v>652.6180891206078</v>
       </c>
       <c r="O4" t="n">
-        <v>786.8064976079671</v>
+        <v>786.8064976079679</v>
       </c>
       <c r="P4" t="n">
-        <v>882.5658916983281</v>
+        <v>882.5658916983291</v>
       </c>
       <c r="Q4" t="n">
-        <v>893.2769546529794</v>
+        <v>893.2769546529805</v>
       </c>
       <c r="R4" t="n">
-        <v>893.2769546529794</v>
+        <v>802.2358682746328</v>
       </c>
       <c r="S4" t="n">
-        <v>893.2769546529794</v>
+        <v>802.2358682746328</v>
       </c>
       <c r="T4" t="n">
-        <v>671.3952976345836</v>
+        <v>802.2358682746328</v>
       </c>
       <c r="U4" t="n">
-        <v>382.2909621442112</v>
+        <v>802.2358682746328</v>
       </c>
       <c r="V4" t="n">
-        <v>127.6064739383243</v>
+        <v>547.551380068746</v>
       </c>
       <c r="W4" t="n">
-        <v>65.06298864599684</v>
+        <v>547.551380068746</v>
       </c>
       <c r="X4" t="n">
-        <v>65.06298864599684</v>
+        <v>319.5618291707286</v>
       </c>
       <c r="Y4" t="n">
-        <v>65.06298864599684</v>
+        <v>319.5618291707286</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1878.169188758594</v>
+        <v>1155.076184668035</v>
       </c>
       <c r="C5" t="n">
-        <v>1509.206671818183</v>
+        <v>786.1136677276231</v>
       </c>
       <c r="D5" t="n">
-        <v>1278.358723975039</v>
+        <v>786.1136677276231</v>
       </c>
       <c r="E5" t="n">
-        <v>892.5704713767946</v>
+        <v>786.1136677276231</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>375.1277629380156</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218342</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
         <v>66.51211643218342</v>
@@ -4568,13 +4568,13 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2994.5429342656</v>
+        <v>2658.049770239163</v>
       </c>
       <c r="W5" t="n">
-        <v>2641.774278995486</v>
+        <v>2305.281114969048</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.308520734406</v>
+        <v>1931.815356707968</v>
       </c>
       <c r="Y5" t="n">
-        <v>1878.169188758594</v>
+        <v>1541.676024732157</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>361.3151575124869</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="C7" t="n">
-        <v>361.3151575124869</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="D7" t="n">
-        <v>361.3151575124869</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
         <v>66.51211643218342</v>
@@ -4753,22 +4753,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181849</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181849</v>
+        <v>469.1096982204634</v>
       </c>
       <c r="V7" t="n">
-        <v>871.5249066929775</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="W7" t="n">
-        <v>582.107736656017</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="X7" t="n">
-        <v>582.107736656017</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="Y7" t="n">
-        <v>361.3151575124869</v>
+        <v>214.4252100145765</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1664.678443125553</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C8" t="n">
-        <v>1664.678443125553</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>1306.412744518802</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.744041450754</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X8" t="n">
-        <v>2051.278283189674</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y8" t="n">
-        <v>2051.278283189674</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="9">
@@ -4872,28 +4872,28 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927782</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>361.3151575124869</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="C10" t="n">
-        <v>361.3151575124869</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R10" t="n">
-        <v>920.887005818185</v>
+        <v>857.6051139892745</v>
       </c>
       <c r="S10" t="n">
-        <v>920.887005818185</v>
+        <v>857.6051139892745</v>
       </c>
       <c r="T10" t="n">
-        <v>920.887005818185</v>
+        <v>857.6051139892745</v>
       </c>
       <c r="U10" t="n">
-        <v>878.7218784474649</v>
+        <v>857.6051139892745</v>
       </c>
       <c r="V10" t="n">
-        <v>878.7218784474649</v>
+        <v>602.9206257833877</v>
       </c>
       <c r="W10" t="n">
-        <v>589.3047084105042</v>
+        <v>602.9206257833877</v>
       </c>
       <c r="X10" t="n">
-        <v>361.3151575124869</v>
+        <v>602.9206257833877</v>
       </c>
       <c r="Y10" t="n">
-        <v>361.3151575124869</v>
+        <v>382.1280466398575</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192412</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111694</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075786</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014776</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,25 +5112,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517212</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190825</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>948.5505208511908</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="C13" t="n">
-        <v>779.6143379232839</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038339</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5215,7 +5215,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
@@ -5224,25 +5224,25 @@
         <v>2379.917379832662</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1868.398285759939</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1868.398285759939</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1578.981115722978</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1350.991564824961</v>
+        <v>969.6676110080573</v>
       </c>
       <c r="Y13" t="n">
-        <v>1130.19898568143</v>
+        <v>969.6676110080573</v>
       </c>
     </row>
     <row r="14">
@@ -5267,7 +5267,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
@@ -5276,7 +5276,7 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075813</v>
@@ -5288,16 +5288,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5352,28 +5352,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190825</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2527.96527192868</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1057.61331560176</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C16" t="n">
-        <v>888.6771326738533</v>
+        <v>929.7309773356193</v>
       </c>
       <c r="D16" t="n">
-        <v>738.5604932615174</v>
+        <v>779.6143379232835</v>
       </c>
       <c r="E16" t="n">
-        <v>590.6473996791243</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
         <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
@@ -5437,10 +5437,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5452,34 +5452,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2333.093974969475</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2113.492509992416</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510508</v>
+        <v>1824.417283336614</v>
       </c>
       <c r="V16" t="n">
-        <v>1977.461080510508</v>
+        <v>1569.732795130727</v>
       </c>
       <c r="W16" t="n">
-        <v>1688.043910473547</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="X16" t="n">
-        <v>1460.05435957553</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y16" t="n">
-        <v>1239.261780432</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5495,7 +5495,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5507,25 +5507,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5601,16 +5601,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1700.311647517212</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>801.6605733532801</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C19" t="n">
-        <v>632.7243904253733</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253733</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429801</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429801</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="T19" t="n">
-        <v>2265.268053123717</v>
+        <v>2160.315914855605</v>
       </c>
       <c r="U19" t="n">
-        <v>1976.192826467915</v>
+        <v>1871.240688199803</v>
       </c>
       <c r="V19" t="n">
-        <v>1721.508338262028</v>
+        <v>1616.556199993916</v>
       </c>
       <c r="W19" t="n">
-        <v>1432.091168225067</v>
+        <v>1327.139029956955</v>
       </c>
       <c r="X19" t="n">
-        <v>1204.10161732705</v>
+        <v>1327.139029956955</v>
       </c>
       <c r="Y19" t="n">
-        <v>983.3090381835199</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="20">
@@ -5741,19 +5741,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M21" t="n">
-        <v>1072.713683962606</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400711</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400711</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277353</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5932,7 +5932,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
         <v>2197.062545487567</v>
@@ -5941,19 +5941,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925705</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703108</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,13 +5975,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
@@ -5990,31 +5990,31 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474784</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,28 +6060,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
         <v>2319.799627685893</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>721.7774158311365</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C25" t="n">
-        <v>552.8412329032296</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2404.986360578632</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="T25" t="n">
-        <v>2185.384895601573</v>
+        <v>2160.315914855603</v>
       </c>
       <c r="U25" t="n">
-        <v>1896.309668945771</v>
+        <v>1871.240688199801</v>
       </c>
       <c r="V25" t="n">
-        <v>1641.625180739884</v>
+        <v>1616.556199993914</v>
       </c>
       <c r="W25" t="n">
-        <v>1352.208010702924</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X25" t="n">
-        <v>1124.218459804906</v>
+        <v>1113.119525808646</v>
       </c>
       <c r="Y25" t="n">
-        <v>903.4258806613763</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311171</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,10 +6236,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,25 +6300,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
         <v>2319.799627685893</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319325</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150029</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942655</v>
+        <v>533.581456494266</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580119</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345481</v>
       </c>
       <c r="H28" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
@@ -6455,46 +6455,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,31 +6534,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.311647517213</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,52 +6595,52 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E31" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345471</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384017</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N31" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
         <v>2596.781734931273</v>
@@ -6649,22 +6649,22 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U31" t="n">
         <v>1978.840049838285</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X31" t="n">
         <v>1280.338681582389</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="32">
@@ -6686,7 +6686,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,25 +6695,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468473</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580119</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345481</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6856,13 +6856,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6871,13 +6871,13 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
         <v>2596.781734931274</v>
@@ -6889,10 +6889,10 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
@@ -6917,10 +6917,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>119.290296770379</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319316</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656809</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150014</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942646</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580105</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345467</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7108,37 +7108,37 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q37" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7163,19 +7163,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7257,22 +7257,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,10 +7306,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
         <v>656.9646031150023</v>
@@ -7327,16 +7327,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7372,7 +7372,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7497,16 +7497,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7558,22 +7558,22 @@
         <v>411.2214559580111</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7588,7 +7588,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931273</v>
@@ -7597,10 +7597,10 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7646,10 +7646,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656812</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7834,22 +7834,22 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
   </sheetData>
@@ -22547,25 +22547,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>327.096732268177</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9811492522526</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>295.2163363185219</v>
       </c>
       <c r="I2" t="n">
-        <v>43.86785806562895</v>
+        <v>43.86785806562887</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,16 +22595,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>110.5418770458107</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.9999258468059</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>63.45619097783077</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22635,7 +22635,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>52.21325120110475</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -22686,7 +22686,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>52.2132512011018</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -22702,10 +22702,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>95.12494916108079</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -22723,7 +22723,7 @@
         <v>144.9920054808265</v>
       </c>
       <c r="I4" t="n">
-        <v>97.15402040370427</v>
+        <v>97.15402040370424</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,25 +22750,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>90.13067551456429</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>190.2335559203903</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.6628404482119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2132921354687</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>224.6049478971868</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -23416,10 +23416,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23470,19 +23470,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>178.2123075861809</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>52.83923663127405</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23662,7 +23662,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>40.64330621514867</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23701,25 +23701,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>134.671115187089</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23893,13 +23893,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>37.52737017531081</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>25.79551989096851</v>
       </c>
     </row>
     <row r="20">
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>100.7734165143927</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>57.22910392194217</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>139.4693302300322</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>13.83034628221247</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1119901.435069564</v>
+        <v>1119901.435069565</v>
       </c>
     </row>
     <row r="3">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16230.45558071831</v>
+        <v>16230.45558071832</v>
       </c>
       <c r="C2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.04424660708</v>
       </c>
       <c r="D2" t="n">
         <v>20526.04424660709</v>
@@ -26332,28 +26332,28 @@
         <v>20178.66499225015</v>
       </c>
       <c r="I2" t="n">
-        <v>20178.66499225015</v>
+        <v>20178.66499225014</v>
       </c>
       <c r="J2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660711</v>
       </c>
       <c r="K2" t="n">
         <v>20526.04424660709</v>
       </c>
       <c r="L2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.0442466071</v>
       </c>
       <c r="M2" t="n">
         <v>20526.04424660709</v>
       </c>
       <c r="N2" t="n">
-        <v>20526.04424660708</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="O2" t="n">
         <v>20526.04424660709</v>
       </c>
       <c r="P2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1308430.533701948</v>
+        <v>1308430.533701949</v>
       </c>
       <c r="C3" t="n">
-        <v>19312.30676833861</v>
+        <v>19312.3067683377</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,25 +26384,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>232219.4755097967</v>
+        <v>232219.4755097969</v>
       </c>
       <c r="K3" t="n">
-        <v>4661.989000940911</v>
+        <v>4661.989000940619</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551169</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363175</v>
+        <v>19427.71799363174</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>572.0114859742004</v>
+        <v>572.0114859742009</v>
       </c>
       <c r="C4" t="n">
         <v>93596.74410405254</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.7441040526</v>
       </c>
       <c r="E4" t="n">
         <v>16046.58397189197</v>
@@ -26436,7 +26436,7 @@
         <v>16046.58397189197</v>
       </c>
       <c r="I4" t="n">
-        <v>16046.58397189192</v>
+        <v>16046.58397189201</v>
       </c>
       <c r="J4" t="n">
         <v>24037.44323498544</v>
@@ -26448,16 +26448,16 @@
         <v>24037.44323498544</v>
       </c>
       <c r="M4" t="n">
-        <v>24037.44323498543</v>
+        <v>24037.44323498547</v>
       </c>
       <c r="N4" t="n">
-        <v>24037.44323498547</v>
+        <v>24037.44323498544</v>
       </c>
       <c r="O4" t="n">
         <v>24037.44323498544</v>
       </c>
       <c r="P4" t="n">
-        <v>24037.44323498543</v>
+        <v>24037.44323498545</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1399282.453730708</v>
+        <v>-1399712.012597298</v>
       </c>
       <c r="C6" t="n">
-        <v>-200316.9471871774</v>
+        <v>-200316.9471871764</v>
       </c>
       <c r="D6" t="n">
-        <v>-181004.6404188387</v>
+        <v>-181004.6404188388</v>
       </c>
       <c r="E6" t="n">
-        <v>-422402.910610904</v>
+        <v>-422437.6485363401</v>
       </c>
       <c r="F6" t="n">
-        <v>-96990.44880354893</v>
+        <v>-97025.18672898463</v>
       </c>
       <c r="G6" t="n">
-        <v>-96990.44880354893</v>
+        <v>-97025.18672898463</v>
       </c>
       <c r="H6" t="n">
-        <v>-96990.44880354893</v>
+        <v>-97025.18672898463</v>
       </c>
       <c r="I6" t="n">
-        <v>-96990.44880354889</v>
+        <v>-97025.1867289847</v>
       </c>
       <c r="J6" t="n">
-        <v>-338894.9903520904</v>
+        <v>-338894.9903520907</v>
       </c>
       <c r="K6" t="n">
-        <v>-111337.5038432347</v>
+        <v>-111337.5038432344</v>
       </c>
       <c r="L6" t="n">
-        <v>-106675.5148422938</v>
+        <v>-106675.5148422937</v>
       </c>
       <c r="M6" t="n">
-        <v>-191730.5427778054</v>
+        <v>-191730.5427778057</v>
       </c>
       <c r="N6" t="n">
-        <v>-106675.5148422938</v>
+        <v>-106675.5148422937</v>
       </c>
       <c r="O6" t="n">
         <v>-126103.2328359255</v>
       </c>
       <c r="P6" t="n">
-        <v>-106675.5148422937</v>
+        <v>-106675.5148422938</v>
       </c>
     </row>
   </sheetData>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>813.2873580749605</v>
+        <v>813.2873580749613</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26808,13 +26808,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26926,10 +26926,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26960,13 +26960,13 @@
         <v>1074.995080392018</v>
       </c>
       <c r="C3" t="n">
-        <v>14.7816202012807</v>
+        <v>14.78162020128002</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>813.2873580749605</v>
+        <v>813.2873580749613</v>
       </c>
       <c r="C4" t="n">
-        <v>18.11409732733227</v>
+        <v>18.11409732733136</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>813.2873580749601</v>
+        <v>813.2873580749613</v>
       </c>
       <c r="K4" t="n">
-        <v>18.1140973273325</v>
+        <v>18.11409732733136</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,10 +27163,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>813.2873580749605</v>
+        <v>813.2873580749613</v>
       </c>
       <c r="K4" t="n">
-        <v>18.11409732733227</v>
+        <v>18.11409732733136</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>126.1435732559706</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>27.05470136090509</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27783,7 +27783,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27825,22 +27825,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>58.50125296003787</v>
       </c>
       <c r="V7" t="n">
-        <v>203.2691651898727</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,13 +27853,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>308.4112138219206</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>222.7020862222435</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28020,16 +28020,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>26.28307975942641</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28065,19 +28065,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>244.4683621085999</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29104,7 +29104,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>6.751381063403296e-13</v>
       </c>
     </row>
     <row r="24">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="35">
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.32158826288248</v>
+        <v>4.321588262882482</v>
       </c>
       <c r="H2" t="n">
-        <v>44.25846579724521</v>
+        <v>44.25846579724524</v>
       </c>
       <c r="I2" t="n">
         <v>166.608031504777</v>
       </c>
       <c r="J2" t="n">
-        <v>366.7894018268222</v>
+        <v>366.7894018268224</v>
       </c>
       <c r="K2" t="n">
-        <v>549.7222329946377</v>
+        <v>549.722232994638</v>
       </c>
       <c r="L2" t="n">
-        <v>681.9790397948275</v>
+        <v>681.9790397948279</v>
       </c>
       <c r="M2" t="n">
-        <v>758.8330850648638</v>
+        <v>758.8330850648642</v>
       </c>
       <c r="N2" t="n">
-        <v>771.1117977167786</v>
+        <v>771.1117977167792</v>
       </c>
       <c r="O2" t="n">
-        <v>728.1390044277409</v>
+        <v>728.1390044277414</v>
       </c>
       <c r="P2" t="n">
-        <v>621.4497941878296</v>
+        <v>621.44979418783</v>
       </c>
       <c r="Q2" t="n">
-        <v>466.6829145233507</v>
+        <v>466.682914523351</v>
       </c>
       <c r="R2" t="n">
-        <v>271.4659687182918</v>
+        <v>271.4659687182919</v>
       </c>
       <c r="S2" t="n">
-        <v>98.47819254043461</v>
+        <v>98.47819254043466</v>
       </c>
       <c r="T2" t="n">
-        <v>18.91775262076806</v>
+        <v>18.91775262076808</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3457270610305983</v>
+        <v>0.3457270610305985</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.312253569145095</v>
+        <v>2.312253569145096</v>
       </c>
       <c r="H3" t="n">
-        <v>22.33150157569078</v>
+        <v>22.3315015756908</v>
       </c>
       <c r="I3" t="n">
-        <v>79.61048472714471</v>
+        <v>79.61048472714477</v>
       </c>
       <c r="J3" t="n">
-        <v>218.4572549690986</v>
+        <v>218.4572549690988</v>
       </c>
       <c r="K3" t="n">
-        <v>373.37824410182</v>
+        <v>373.3782441018202</v>
       </c>
       <c r="L3" t="n">
-        <v>502.05312693214</v>
+        <v>502.0531269321403</v>
       </c>
       <c r="M3" t="n">
-        <v>585.8723188136495</v>
+        <v>585.8723188136499</v>
       </c>
       <c r="N3" t="n">
-        <v>601.3786157751533</v>
+        <v>601.3786157751538</v>
       </c>
       <c r="O3" t="n">
-        <v>550.1439445851488</v>
+        <v>550.1439445851493</v>
       </c>
       <c r="P3" t="n">
-        <v>441.5390170764874</v>
+        <v>441.5390170764877</v>
       </c>
       <c r="Q3" t="n">
-        <v>295.1571398087668</v>
+        <v>295.157139808767</v>
       </c>
       <c r="R3" t="n">
-        <v>143.5625505474472</v>
+        <v>143.5625505474473</v>
       </c>
       <c r="S3" t="n">
-        <v>42.94909590056785</v>
+        <v>42.94909590056788</v>
       </c>
       <c r="T3" t="n">
-        <v>9.320004517738338</v>
+        <v>9.320004517738344</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1521219453384931</v>
+        <v>0.1521219453384932</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,46 +31197,46 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.938515718739704</v>
+        <v>1.938515718739705</v>
       </c>
       <c r="H4" t="n">
-        <v>17.23516702661301</v>
+        <v>17.23516702661302</v>
       </c>
       <c r="I4" t="n">
-        <v>58.29645452355402</v>
+        <v>58.29645452355405</v>
       </c>
       <c r="J4" t="n">
-        <v>137.053061314897</v>
+        <v>137.0530613148971</v>
       </c>
       <c r="K4" t="n">
-        <v>225.2202807772128</v>
+        <v>225.2202807772129</v>
       </c>
       <c r="L4" t="n">
-        <v>288.2044187660829</v>
+        <v>288.2044187660831</v>
       </c>
       <c r="M4" t="n">
-        <v>303.8711503475337</v>
+        <v>303.8711503475339</v>
       </c>
       <c r="N4" t="n">
-        <v>296.6457735776859</v>
+        <v>296.6457735776862</v>
       </c>
       <c r="O4" t="n">
-        <v>274.000385408772</v>
+        <v>274.0003854087722</v>
       </c>
       <c r="P4" t="n">
-        <v>234.4546647464819</v>
+        <v>234.454664746482</v>
       </c>
       <c r="Q4" t="n">
         <v>162.3242571391947</v>
       </c>
       <c r="R4" t="n">
-        <v>87.1627158626052</v>
+        <v>87.16271586260525</v>
       </c>
       <c r="S4" t="n">
-        <v>33.78304211658192</v>
+        <v>33.78304211658194</v>
       </c>
       <c r="T4" t="n">
-        <v>8.282748980069641</v>
+        <v>8.282748980069647</v>
       </c>
       <c r="U4" t="n">
         <v>0.1057372210221658</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,7 +31835,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31847,13 +31847,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>338.1920576279222</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>340.4395077511235</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -32072,10 +32072,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32084,19 +32084,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>165.3312853305619</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32321,19 +32321,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>340.4395077511235</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32546,10 +32546,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32558,10 +32558,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>405.6377363145776</v>
+        <v>187.2159464875253</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32570,7 +32570,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>405.637736314577</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>369.1789913099997</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>405.637736314577</v>
+        <v>357.9244589488886</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>340.4395077511227</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460007</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473074</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565758</v>
+        <v>688.8020111197787</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33731,19 +33731,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>164.2853229338207</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33758,7 +33758,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33977,10 +33977,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>444.2274915982894</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33989,13 +33989,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34147,7 +34147,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669223</v>
@@ -34217,19 +34217,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>414.6448185524877</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34366,7 +34366,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34378,7 +34378,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
         <v>926.5868626460027</v>
@@ -34442,10 +34442,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34460,7 +34460,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>185.7434973001359</v>
+        <v>185.7434973001361</v>
       </c>
       <c r="K2" t="n">
-        <v>329.6323819496571</v>
+        <v>329.6323819496575</v>
       </c>
       <c r="L2" t="n">
-        <v>446.2126248248402</v>
+        <v>446.2126248248407</v>
       </c>
       <c r="M2" t="n">
-        <v>528.4868518375911</v>
+        <v>528.4868518375915</v>
       </c>
       <c r="N2" t="n">
-        <v>541.6987341201877</v>
+        <v>541.6987341201882</v>
       </c>
       <c r="O2" t="n">
-        <v>498.0407930060542</v>
+        <v>498.0407930060546</v>
       </c>
       <c r="P2" t="n">
-        <v>390.2167984325601</v>
+        <v>390.2167984325604</v>
       </c>
       <c r="Q2" t="n">
-        <v>244.3772246489012</v>
+        <v>244.3772246489015</v>
       </c>
       <c r="R2" t="n">
-        <v>55.88043090415965</v>
+        <v>55.88043090415982</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>91.61962830243195</v>
+        <v>91.61962830243209</v>
       </c>
       <c r="K3" t="n">
-        <v>235.536805127461</v>
+        <v>235.5368051274612</v>
       </c>
       <c r="L3" t="n">
-        <v>363.4987471522658</v>
+        <v>363.4987471522661</v>
       </c>
       <c r="M3" t="n">
-        <v>443.7382848916312</v>
+        <v>443.7382848916316</v>
       </c>
       <c r="N3" t="n">
-        <v>470.03690369182</v>
+        <v>470.0369036918205</v>
       </c>
       <c r="O3" t="n">
-        <v>407.5477001407044</v>
+        <v>407.5477001407048</v>
       </c>
       <c r="P3" t="n">
-        <v>307.5646096621572</v>
+        <v>307.5646096621575</v>
       </c>
       <c r="Q3" t="n">
-        <v>155.1753657227453</v>
+        <v>155.1753657227455</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10.05763987550093</v>
+        <v>10.05763987550101</v>
       </c>
       <c r="K4" t="n">
-        <v>96.20702260667741</v>
+        <v>96.20702260667755</v>
       </c>
       <c r="L4" t="n">
-        <v>153.3197424848446</v>
+        <v>153.3197424848448</v>
       </c>
       <c r="M4" t="n">
-        <v>164.9453663999286</v>
+        <v>164.9453663999288</v>
       </c>
       <c r="N4" t="n">
-        <v>168.9602291124527</v>
+        <v>168.960229112453</v>
       </c>
       <c r="O4" t="n">
-        <v>135.5438469569293</v>
+        <v>135.5438469569294</v>
       </c>
       <c r="P4" t="n">
-        <v>96.72666069733427</v>
+        <v>96.72666069733441</v>
       </c>
       <c r="Q4" t="n">
-        <v>10.81925550974881</v>
+        <v>10.8192555097489</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35495,13 +35495,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>196.0580237059039</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>197.843263306679</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35568,7 +35568,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096345</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
         <v>394.3420143191314</v>
@@ -35720,10 +35720,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35732,19 +35732,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>25.34951124454038</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35969,19 +35969,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>197.843263306679</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36194,10 +36194,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36206,10 +36206,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>274.2960242312443</v>
+        <v>55.87423440419198</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36218,7 +36218,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,22 +36440,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>274.2960242312436</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,22 +36677,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>274.2960242312436</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36753,25 +36753,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N28" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P28" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q28" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,22 +36914,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>197.8432633066783</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36990,25 +36990,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N31" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243139</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674332</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121313</v>
+        <v>546.2057666753343</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549932</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111713</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819473</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37379,19 +37379,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37406,7 +37406,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
         <v>288.6172359016746</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37625,10 +37625,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>302.093457676271</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37637,13 +37637,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37795,7 +37795,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
@@ -37865,19 +37865,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>272.5107846304694</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38026,7 +38026,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
         <v>696.488651224316</v>
@@ -38090,10 +38090,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38108,7 +38108,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
